--- a/Dataset/OR60.xlsx
+++ b/Dataset/OR60.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\CSP_Solver_Final\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D2E676-E43D-47F0-B6C6-AB842A006D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D46222-220B-43DD-8360-91EDCDF459E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -2824,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3036,9 +3036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C69255-5912-4D6E-83E6-D37C87DA9D15}">
   <dimension ref="A1:AL330"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10596,7 +10596,7 @@
       <c r="AK133" s="15"/>
       <c r="AL133" s="15"/>
     </row>
-    <row r="134" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>226</v>
       </c>
@@ -10643,7 +10643,7 @@
       <c r="AK134" s="15"/>
       <c r="AL134" s="15"/>
     </row>
-    <row r="135" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>227</v>
       </c>
@@ -10690,7 +10690,7 @@
       <c r="AK135" s="15"/>
       <c r="AL135" s="15"/>
     </row>
-    <row r="136" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
         <v>228</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="AK136" s="15"/>
       <c r="AL136" s="15"/>
     </row>
-    <row r="137" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
         <v>229</v>
       </c>
@@ -10784,7 +10784,7 @@
       <c r="AK137" s="15"/>
       <c r="AL137" s="15"/>
     </row>
-    <row r="138" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
         <v>230</v>
       </c>
@@ -10845,7 +10845,7 @@
       <c r="AK138" s="15"/>
       <c r="AL138" s="15"/>
     </row>
-    <row r="139" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>232</v>
       </c>
@@ -10906,7 +10906,7 @@
       <c r="AK139" s="15"/>
       <c r="AL139" s="15"/>
     </row>
-    <row r="140" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>233</v>
       </c>
@@ -10967,7 +10967,7 @@
       <c r="AK140" s="15"/>
       <c r="AL140" s="15"/>
     </row>
-    <row r="141" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>234</v>
       </c>
@@ -11026,7 +11026,7 @@
       <c r="AK141" s="15"/>
       <c r="AL141" s="15"/>
     </row>
-    <row r="142" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
         <v>235</v>
       </c>
@@ -11085,7 +11085,7 @@
       <c r="AK142" s="15"/>
       <c r="AL142" s="15"/>
     </row>
-    <row r="143" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>236</v>
       </c>
@@ -11146,7 +11146,7 @@
       <c r="AK143" s="15"/>
       <c r="AL143" s="15"/>
     </row>
-    <row r="144" spans="1:38" ht="10.199999999999999" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>237</v>
       </c>
@@ -11207,17 +11207,17 @@
       <c r="AK144" s="15"/>
       <c r="AL144" s="15"/>
     </row>
-    <row r="145" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
+    <row r="145" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C145" s="18">
+      <c r="C145" s="15">
         <v>3</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="15">
         <v>1</v>
       </c>
       <c r="E145" s="20" t="s">
@@ -11226,14 +11226,12 @@
       <c r="F145" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="G145" s="14"/>
       <c r="H145" s="15">
         <v>1</v>
       </c>
       <c r="I145" s="15">
         <v>1</v>
       </c>
-      <c r="J145" s="18"/>
       <c r="K145" s="15">
         <v>1</v>
       </c>
@@ -11251,7 +11249,7 @@
       </c>
       <c r="P145" s="15"/>
       <c r="Q145" s="15"/>
-      <c r="R145" s="18"/>
+      <c r="R145" s="15"/>
       <c r="S145" s="15"/>
       <c r="T145" s="15"/>
       <c r="U145" s="15"/>
@@ -11259,7 +11257,7 @@
       <c r="W145" s="15"/>
       <c r="X145" s="15"/>
       <c r="Y145" s="15"/>
-      <c r="Z145" s="18"/>
+      <c r="Z145" s="15"/>
       <c r="AA145" s="15"/>
       <c r="AB145" s="15"/>
       <c r="AC145" s="15"/>
@@ -11267,23 +11265,23 @@
       <c r="AE145" s="15"/>
       <c r="AF145" s="15"/>
       <c r="AG145" s="15"/>
-      <c r="AH145" s="18"/>
+      <c r="AH145" s="15"/>
       <c r="AI145" s="15"/>
       <c r="AJ145" s="15"/>
       <c r="AK145" s="15"/>
       <c r="AL145" s="15"/>
     </row>
-    <row r="146" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
+    <row r="146" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C146" s="18">
+      <c r="C146" s="15">
         <v>3</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="15">
         <v>2</v>
       </c>
       <c r="E146" s="20" t="s">
@@ -11292,14 +11290,12 @@
       <c r="F146" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="G146" s="14"/>
       <c r="H146" s="15">
         <v>1</v>
       </c>
       <c r="I146" s="15">
         <v>1</v>
       </c>
-      <c r="J146" s="18"/>
       <c r="K146" s="15">
         <v>1</v>
       </c>
@@ -11317,7 +11313,7 @@
       </c>
       <c r="P146" s="15"/>
       <c r="Q146" s="15"/>
-      <c r="R146" s="18"/>
+      <c r="R146" s="15"/>
       <c r="S146" s="15"/>
       <c r="T146" s="15"/>
       <c r="U146" s="15"/>
@@ -11325,7 +11321,7 @@
       <c r="W146" s="15"/>
       <c r="X146" s="15"/>
       <c r="Y146" s="15"/>
-      <c r="Z146" s="18"/>
+      <c r="Z146" s="15"/>
       <c r="AA146" s="15"/>
       <c r="AB146" s="15"/>
       <c r="AC146" s="15"/>
@@ -11333,23 +11329,23 @@
       <c r="AE146" s="15"/>
       <c r="AF146" s="15"/>
       <c r="AG146" s="15"/>
-      <c r="AH146" s="18"/>
+      <c r="AH146" s="15"/>
       <c r="AI146" s="15"/>
       <c r="AJ146" s="15"/>
       <c r="AK146" s="15"/>
       <c r="AL146" s="15"/>
     </row>
-    <row r="147" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="17" t="s">
+    <row r="147" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C147" s="18">
+      <c r="C147" s="15">
         <v>3</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="15">
         <v>3</v>
       </c>
       <c r="E147" s="20" t="s">
@@ -11358,14 +11354,12 @@
       <c r="F147" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="G147" s="14"/>
       <c r="H147" s="15">
         <v>1</v>
       </c>
       <c r="I147" s="15">
         <v>1</v>
       </c>
-      <c r="J147" s="18"/>
       <c r="K147" s="15">
         <v>1</v>
       </c>
@@ -11383,7 +11377,7 @@
       </c>
       <c r="P147" s="15"/>
       <c r="Q147" s="15"/>
-      <c r="R147" s="18"/>
+      <c r="R147" s="15"/>
       <c r="S147" s="15"/>
       <c r="T147" s="15"/>
       <c r="U147" s="15"/>
@@ -11391,7 +11385,7 @@
       <c r="W147" s="15"/>
       <c r="X147" s="15"/>
       <c r="Y147" s="15"/>
-      <c r="Z147" s="18"/>
+      <c r="Z147" s="15"/>
       <c r="AA147" s="15"/>
       <c r="AB147" s="15"/>
       <c r="AC147" s="15"/>
@@ -11399,23 +11393,23 @@
       <c r="AE147" s="15"/>
       <c r="AF147" s="15"/>
       <c r="AG147" s="15"/>
-      <c r="AH147" s="18"/>
+      <c r="AH147" s="15"/>
       <c r="AI147" s="15"/>
       <c r="AJ147" s="15"/>
       <c r="AK147" s="15"/>
       <c r="AL147" s="15"/>
     </row>
-    <row r="148" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="17" t="s">
+    <row r="148" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C148" s="18">
+      <c r="C148" s="15">
         <v>3</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="15">
         <v>4</v>
       </c>
       <c r="E148" s="20" t="s">
@@ -11424,14 +11418,12 @@
       <c r="F148" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="G148" s="14"/>
       <c r="H148" s="15">
         <v>1</v>
       </c>
       <c r="I148" s="15">
         <v>1</v>
       </c>
-      <c r="J148" s="18"/>
       <c r="K148" s="15">
         <v>1</v>
       </c>
@@ -11449,7 +11441,7 @@
       </c>
       <c r="P148" s="15"/>
       <c r="Q148" s="15"/>
-      <c r="R148" s="18"/>
+      <c r="R148" s="15"/>
       <c r="S148" s="15"/>
       <c r="T148" s="15"/>
       <c r="U148" s="15"/>
@@ -11457,7 +11449,7 @@
       <c r="W148" s="15"/>
       <c r="X148" s="15"/>
       <c r="Y148" s="15"/>
-      <c r="Z148" s="18"/>
+      <c r="Z148" s="15"/>
       <c r="AA148" s="15"/>
       <c r="AB148" s="15"/>
       <c r="AC148" s="15"/>
@@ -11465,23 +11457,23 @@
       <c r="AE148" s="15"/>
       <c r="AF148" s="15"/>
       <c r="AG148" s="15"/>
-      <c r="AH148" s="18"/>
+      <c r="AH148" s="15"/>
       <c r="AI148" s="15"/>
       <c r="AJ148" s="15"/>
       <c r="AK148" s="15"/>
       <c r="AL148" s="15"/>
     </row>
-    <row r="149" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="17" t="s">
+    <row r="149" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C149" s="18">
+      <c r="C149" s="15">
         <v>2</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="15">
         <v>5</v>
       </c>
       <c r="E149" s="20" t="s">
@@ -11490,7 +11482,6 @@
       <c r="F149" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="G149" s="14"/>
       <c r="H149" s="15">
         <v>1</v>
       </c>
@@ -11500,7 +11491,6 @@
       <c r="J149" s="15">
         <v>1</v>
       </c>
-      <c r="K149" s="18"/>
       <c r="L149" s="15">
         <v>1</v>
       </c>
@@ -11516,7 +11506,7 @@
       <c r="P149" s="15"/>
       <c r="Q149" s="15"/>
       <c r="R149" s="15"/>
-      <c r="S149" s="18"/>
+      <c r="S149" s="15"/>
       <c r="T149" s="15"/>
       <c r="U149" s="15"/>
       <c r="V149" s="15"/>
@@ -11524,7 +11514,7 @@
       <c r="X149" s="15"/>
       <c r="Y149" s="15"/>
       <c r="Z149" s="15"/>
-      <c r="AA149" s="18"/>
+      <c r="AA149" s="15"/>
       <c r="AB149" s="15"/>
       <c r="AC149" s="15"/>
       <c r="AD149" s="15"/>
@@ -11532,22 +11522,22 @@
       <c r="AF149" s="15"/>
       <c r="AG149" s="15"/>
       <c r="AH149" s="15"/>
-      <c r="AI149" s="18"/>
+      <c r="AI149" s="15"/>
       <c r="AJ149" s="15"/>
       <c r="AK149" s="15"/>
       <c r="AL149" s="15"/>
     </row>
-    <row r="150" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="17" t="s">
+    <row r="150" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C150" s="18">
+      <c r="C150" s="15">
         <v>2</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="15">
         <v>6</v>
       </c>
       <c r="E150" s="20" t="s">
@@ -11556,7 +11546,6 @@
       <c r="F150" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="G150" s="14"/>
       <c r="H150" s="15">
         <v>1</v>
       </c>
@@ -11566,7 +11555,6 @@
       <c r="J150" s="15">
         <v>1</v>
       </c>
-      <c r="K150" s="18"/>
       <c r="L150" s="15">
         <v>1</v>
       </c>
@@ -11582,7 +11570,7 @@
       <c r="P150" s="15"/>
       <c r="Q150" s="15"/>
       <c r="R150" s="15"/>
-      <c r="S150" s="18"/>
+      <c r="S150" s="15"/>
       <c r="T150" s="15"/>
       <c r="U150" s="15"/>
       <c r="V150" s="15"/>
@@ -11590,7 +11578,7 @@
       <c r="X150" s="15"/>
       <c r="Y150" s="15"/>
       <c r="Z150" s="15"/>
-      <c r="AA150" s="18"/>
+      <c r="AA150" s="15"/>
       <c r="AB150" s="15"/>
       <c r="AC150" s="15"/>
       <c r="AD150" s="15"/>
@@ -11598,22 +11586,22 @@
       <c r="AF150" s="15"/>
       <c r="AG150" s="15"/>
       <c r="AH150" s="15"/>
-      <c r="AI150" s="18"/>
+      <c r="AI150" s="15"/>
       <c r="AJ150" s="15"/>
       <c r="AK150" s="15"/>
       <c r="AL150" s="15"/>
     </row>
-    <row r="151" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="17" t="s">
+    <row r="151" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C151" s="18">
+      <c r="C151" s="15">
         <v>2</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="15">
         <v>7</v>
       </c>
       <c r="E151" s="20" t="s">
@@ -11622,7 +11610,6 @@
       <c r="F151" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="G151" s="14"/>
       <c r="H151" s="15">
         <v>1</v>
       </c>
@@ -11632,7 +11619,6 @@
       <c r="J151" s="15">
         <v>1</v>
       </c>
-      <c r="K151" s="18"/>
       <c r="L151" s="15">
         <v>1</v>
       </c>
@@ -11648,7 +11634,7 @@
       <c r="P151" s="15"/>
       <c r="Q151" s="15"/>
       <c r="R151" s="15"/>
-      <c r="S151" s="18"/>
+      <c r="S151" s="15"/>
       <c r="T151" s="15"/>
       <c r="U151" s="15"/>
       <c r="V151" s="15"/>
@@ -11656,7 +11642,7 @@
       <c r="X151" s="15"/>
       <c r="Y151" s="15"/>
       <c r="Z151" s="15"/>
-      <c r="AA151" s="18"/>
+      <c r="AA151" s="15"/>
       <c r="AB151" s="15"/>
       <c r="AC151" s="15"/>
       <c r="AD151" s="15"/>
@@ -11664,22 +11650,22 @@
       <c r="AF151" s="15"/>
       <c r="AG151" s="15"/>
       <c r="AH151" s="15"/>
-      <c r="AI151" s="18"/>
+      <c r="AI151" s="15"/>
       <c r="AJ151" s="15"/>
       <c r="AK151" s="15"/>
       <c r="AL151" s="15"/>
     </row>
-    <row r="152" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="17" t="s">
+    <row r="152" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C152" s="18">
+      <c r="C152" s="15">
         <v>2</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="15">
         <v>8</v>
       </c>
       <c r="E152" s="20" t="s">
@@ -11688,7 +11674,6 @@
       <c r="F152" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="G152" s="14"/>
       <c r="H152" s="15">
         <v>1</v>
       </c>
@@ -11698,7 +11683,6 @@
       <c r="J152" s="15">
         <v>1</v>
       </c>
-      <c r="K152" s="18"/>
       <c r="L152" s="15">
         <v>1</v>
       </c>
@@ -11714,7 +11698,7 @@
       <c r="P152" s="15"/>
       <c r="Q152" s="15"/>
       <c r="R152" s="15"/>
-      <c r="S152" s="18"/>
+      <c r="S152" s="15"/>
       <c r="T152" s="15"/>
       <c r="U152" s="15"/>
       <c r="V152" s="15"/>
@@ -11722,7 +11706,7 @@
       <c r="X152" s="15"/>
       <c r="Y152" s="15"/>
       <c r="Z152" s="15"/>
-      <c r="AA152" s="18"/>
+      <c r="AA152" s="15"/>
       <c r="AB152" s="15"/>
       <c r="AC152" s="15"/>
       <c r="AD152" s="15"/>
@@ -11730,22 +11714,22 @@
       <c r="AF152" s="15"/>
       <c r="AG152" s="15"/>
       <c r="AH152" s="15"/>
-      <c r="AI152" s="18"/>
+      <c r="AI152" s="15"/>
       <c r="AJ152" s="15"/>
       <c r="AK152" s="15"/>
       <c r="AL152" s="15"/>
     </row>
-    <row r="153" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="17" t="s">
+    <row r="153" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C153" s="18">
+      <c r="C153" s="15">
         <v>4</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="15">
         <v>9</v>
       </c>
       <c r="E153" s="20" t="s">
@@ -11754,7 +11738,6 @@
       <c r="F153" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="G153" s="14"/>
       <c r="H153" s="15">
         <v>1</v>
       </c>
@@ -11767,7 +11750,7 @@
       <c r="K153" s="15">
         <v>1</v>
       </c>
-      <c r="L153" s="18"/>
+      <c r="L153" s="15"/>
       <c r="M153" s="15">
         <v>1</v>
       </c>
@@ -11781,7 +11764,7 @@
       <c r="Q153" s="15"/>
       <c r="R153" s="15"/>
       <c r="S153" s="15"/>
-      <c r="T153" s="18"/>
+      <c r="T153" s="15"/>
       <c r="U153" s="15"/>
       <c r="V153" s="15"/>
       <c r="W153" s="15"/>
@@ -11789,7 +11772,7 @@
       <c r="Y153" s="15"/>
       <c r="Z153" s="15"/>
       <c r="AA153" s="15"/>
-      <c r="AB153" s="18"/>
+      <c r="AB153" s="15"/>
       <c r="AC153" s="15"/>
       <c r="AD153" s="15"/>
       <c r="AE153" s="15"/>
@@ -11797,21 +11780,21 @@
       <c r="AG153" s="15"/>
       <c r="AH153" s="15"/>
       <c r="AI153" s="15"/>
-      <c r="AJ153" s="18"/>
+      <c r="AJ153" s="15"/>
       <c r="AK153" s="15"/>
       <c r="AL153" s="15"/>
     </row>
-    <row r="154" spans="1:38" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="17" t="s">
+    <row r="154" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C154" s="18">
+      <c r="C154" s="15">
         <v>4</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="15">
         <v>10</v>
       </c>
       <c r="E154" s="20" t="s">
@@ -11820,7 +11803,6 @@
       <c r="F154" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="G154" s="14"/>
       <c r="H154" s="15">
         <v>1</v>
       </c>
@@ -11833,7 +11815,7 @@
       <c r="K154" s="15">
         <v>1</v>
       </c>
-      <c r="L154" s="18"/>
+      <c r="L154" s="15"/>
       <c r="M154" s="15">
         <v>1</v>
       </c>
@@ -11847,7 +11829,7 @@
       <c r="Q154" s="15"/>
       <c r="R154" s="15"/>
       <c r="S154" s="15"/>
-      <c r="T154" s="18"/>
+      <c r="T154" s="15"/>
       <c r="U154" s="15"/>
       <c r="V154" s="15"/>
       <c r="W154" s="15"/>
@@ -11855,7 +11837,7 @@
       <c r="Y154" s="15"/>
       <c r="Z154" s="15"/>
       <c r="AA154" s="15"/>
-      <c r="AB154" s="18"/>
+      <c r="AB154" s="15"/>
       <c r="AC154" s="15"/>
       <c r="AD154" s="15"/>
       <c r="AE154" s="15"/>
@@ -11863,7 +11845,7 @@
       <c r="AG154" s="15"/>
       <c r="AH154" s="15"/>
       <c r="AI154" s="15"/>
-      <c r="AJ154" s="18"/>
+      <c r="AJ154" s="15"/>
       <c r="AK154" s="15"/>
       <c r="AL154" s="15"/>
     </row>
